--- a/yabuki-a/PM演習矢吹a/PM演習_内部設計書_矢吹研A班（ヘンコウ）.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_内部設計書_矢吹研A班（ヘンコウ）.xlsx
@@ -1163,6 +1163,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,9 +1206,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,42 +1238,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,7 +1265,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2776,7 +2776,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9560568" y="4084301"/>
+          <a:off x="9916720" y="4084301"/>
           <a:ext cx="750794" cy="454570"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
@@ -3410,198 +3410,1994 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91107</xdr:rowOff>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40131</xdr:rowOff>
+      <xdr:colOff>1938130</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99770</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="62" name="グループ化 61"/>
+        <xdr:cNvPr id="46" name="グループ化 45"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6377609" y="1325216"/>
-          <a:ext cx="2857500" cy="2905915"/>
-          <a:chOff x="2631066" y="1032530"/>
-          <a:chExt cx="3094762" cy="2972176"/>
+          <a:off x="5391978" y="1648239"/>
+          <a:ext cx="4174435" cy="4555814"/>
+          <a:chOff x="3180423" y="1165141"/>
+          <a:chExt cx="4114958" cy="4555814"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="57" name="グループ化 56"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3188950" y="1165141"/>
+            <a:ext cx="2683718" cy="2200021"/>
+            <a:chOff x="3188950" y="1165141"/>
+            <a:chExt cx="2683718" cy="2200021"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="1165141"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>「今いる！」ボタン</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="88" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="1750927"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>各変数へ入力値をセット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="フローチャート : 磁気ディスク 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4611665" y="2333637"/>
+              <a:ext cx="1261003" cy="443139"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>顧客</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>入室管理</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>テーブル</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="2341875"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>に対する入室情報を居合せ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="2932823"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>メニュー画面の</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>再表示</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="87" idx="2"/>
+              <a:endCxn id="88" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3810925" y="1592318"/>
+              <a:ext cx="409" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="88" idx="2"/>
+              <a:endCxn id="90" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3810925" y="2183266"/>
+              <a:ext cx="0" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="90" idx="2"/>
+              <a:endCxn id="91" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3810925" y="2774214"/>
+              <a:ext cx="0" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="90" idx="3"/>
+              <a:endCxn id="89" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4432899" y="2555207"/>
+              <a:ext cx="178766" cy="2838"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="58" name="グループ化 57"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3180423" y="3520934"/>
+            <a:ext cx="2683718" cy="2200021"/>
+            <a:chOff x="3188950" y="1165141"/>
+            <a:chExt cx="2683718" cy="2200021"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="フローチャート : 手操作入力 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="1165141"/>
+              <a:ext cx="1244767" cy="427177"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartManualInput">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>「退出」ボタン</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="1750927"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>各変数へ入力値をセット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="フローチャート : 磁気ディスク 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4611665" y="2333637"/>
+              <a:ext cx="1261003" cy="443139"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>顧客</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>入室管理</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>テーブル</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="2341875"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>に対する入室情報を居合せ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="フローチャート : 定義済み処理 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3188950" y="2932823"/>
+              <a:ext cx="1243949" cy="432339"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartPredefinedProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ログイン画面の</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>表示</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="78" idx="2"/>
+              <a:endCxn id="79" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3810925" y="1592318"/>
+              <a:ext cx="409" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="79" idx="2"/>
+              <a:endCxn id="81" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3810925" y="2183266"/>
+              <a:ext cx="0" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="81" idx="2"/>
+              <a:endCxn id="82" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3810925" y="2774214"/>
+              <a:ext cx="0" cy="158609"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="81" idx="3"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4432899" y="2555207"/>
+              <a:ext cx="178766" cy="2838"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvPr id="72" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2631066" y="1032530"/>
-            <a:ext cx="1344614" cy="443362"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartManualInput">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>「今いる！」ボタン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>押下</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2631949" y="1837159"/>
-            <a:ext cx="1343731" cy="448720"/>
+            <a:off x="6051432" y="1168367"/>
+            <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
             <a:avLst/>
@@ -3738,190 +5534,20 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>各変数へ入力値をセット</a:t>
+              <a:t>自動更新</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvPr id="73" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4363675" y="2647146"/>
-            <a:ext cx="1362153" cy="459929"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>顧客</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>入室管理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>テーブル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="フローチャート : 定義済み処理 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2631066" y="2647146"/>
-            <a:ext cx="1343731" cy="448720"/>
+            <a:off x="6051431" y="3506008"/>
+            <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
             <a:avLst/>
@@ -4051,44 +5677,62 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>ID</a:t>
+              <a:t>メニュー画面の再表示</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>に対する入室情報を居合せ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="72" idx="2"/>
+            <a:endCxn id="75" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6673406" y="1600706"/>
+            <a:ext cx="1" cy="741169"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="75" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2631066" y="3555986"/>
-            <a:ext cx="1343731" cy="448720"/>
+            <a:off x="6051431" y="2341875"/>
+            <a:ext cx="1243949" cy="432339"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
             <a:avLst/>
@@ -4218,25 +5862,15 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>メニュー画面の</a:t>
+              <a:t>ID</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
@@ -4245,7 +5879,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>再表示</a:t>
+              <a:t>に対する入室情報を居合せ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -4259,16 +5893,16 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+          <xdr:cNvPr id="76" name="直線矢印コネクタ 75"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="63" idx="2"/>
-            <a:endCxn id="64" idx="0"/>
+            <a:stCxn id="75" idx="1"/>
+            <a:endCxn id="89" idx="4"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3303373" y="1475892"/>
-            <a:ext cx="442" cy="361267"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5872668" y="2555207"/>
+            <a:ext cx="178763" cy="2838"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4294,86 +5928,16 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+          <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="64" idx="2"/>
-            <a:endCxn id="66" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="3302932" y="2285879"/>
-            <a:ext cx="883" cy="361267"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="66" idx="2"/>
-            <a:endCxn id="67" idx="0"/>
+            <a:stCxn id="75" idx="2"/>
+            <a:endCxn id="73" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3302932" y="3095866"/>
-            <a:ext cx="0" cy="460120"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="66" idx="3"/>
-            <a:endCxn id="65" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3974797" y="2871506"/>
-            <a:ext cx="388878" cy="5605"/>
+            <a:off x="6673406" y="2774214"/>
+            <a:ext cx="0" cy="731794"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7305,10 +8869,10 @@
       <c r="O1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="72">
         <v>41792</v>
       </c>
-      <c r="Q1" s="63"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -7325,11 +8889,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -7374,17 +8938,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7395,15 +8959,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7414,15 +8978,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7470,19 +9034,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -7491,17 +9055,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -7510,17 +9074,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -7530,17 +9094,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7551,15 +9115,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7570,15 +9134,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7589,15 +9153,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7608,15 +9172,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7647,15 +9211,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7668,13 +9232,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7687,13 +9251,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7706,13 +9270,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7725,13 +9289,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7744,13 +9308,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7763,13 +9327,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7823,16 +9387,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -7844,22 +9408,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60" t="s">
+      <c r="J29" s="66"/>
+      <c r="K29" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60" t="s">
+      <c r="L29" s="66"/>
+      <c r="M29" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60" t="s">
+      <c r="N29" s="66"/>
+      <c r="O29" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="61"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -7871,16 +9435,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="75" t="s">
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="76"/>
+      <c r="P30" s="61"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -7892,14 +9456,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -7911,14 +9475,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -7930,14 +9494,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -7949,14 +9513,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7968,14 +9532,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7999,12 +9563,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -8014,6 +9572,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8032,14 +9596,18 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -8047,26 +9615,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="e">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -8146,62 +9714,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="72">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="57">
         <v>1</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="72" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -8786,17 +10354,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8831,26 +10399,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="e">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="55" t="s">
         <v>2</v>
       </c>
@@ -8930,62 +10498,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="72">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="57">
         <v>4</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="72" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9570,17 +11138,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9615,26 +11183,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="e">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -9759,10 +11327,10 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="30" t="s">
         <v>24</v>
       </c>
@@ -9772,11 +11340,11 @@
       <c r="I8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9790,16 +11358,16 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9813,16 +11381,16 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9836,16 +11404,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -9859,16 +11427,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -9889,9 +11457,9 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9905,14 +11473,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="88"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9926,14 +11494,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9947,14 +11515,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="88"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -9968,14 +11536,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="88"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -9989,14 +11557,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10010,14 +11578,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="88"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10031,14 +11599,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="88"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10052,14 +11620,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10073,14 +11641,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="88"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10094,14 +11662,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10115,14 +11683,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10136,14 +11704,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10157,14 +11725,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="86"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -10406,12 +11974,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10428,25 +12009,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
